--- a/sd_met.xlsx
+++ b/sd_met.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdb57c4ba95ff0a3/Documentos/e_health_lean_six_sigma/g_intermediario_2/data_raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\loc_sgq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{3B735B45-148D-4FF2-90B4-63CDCF7DD8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51F0BBB6-D359-4B87-8CD4-9CE5A57D3889}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BBB217-6E87-4598-9C4D-D5F3E2FBE75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6CAE7BE2-4C37-4705-98FC-830CC73A23DE}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{6CAE7BE2-4C37-4705-98FC-830CC73A23DE}"/>
   </bookViews>
   <sheets>
     <sheet name="sd_met" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="17">
   <si>
     <t>imc</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>geral</t>
+  </si>
+  <si>
+    <t>tudo</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,19 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B37FC-727C-4A92-BA91-A5883193757F}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H84" workbookViewId="0">
-      <selection activeCell="V93" sqref="V93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="8.7265625" style="8"/>
+    <col min="1" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -526,8 +535,14 @@
       <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>225325</v>
       </c>
@@ -556,7 +571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>658498</v>
       </c>
@@ -585,7 +600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>706711</v>
       </c>
@@ -614,7 +629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>109567</v>
       </c>
@@ -643,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>875989</v>
       </c>
@@ -672,7 +687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>620571</v>
       </c>
@@ -701,7 +716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>607393</v>
       </c>
@@ -730,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>538980</v>
       </c>
@@ -759,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>233067</v>
       </c>
@@ -788,7 +803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>183679</v>
       </c>
@@ -817,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>322352</v>
       </c>
@@ -846,7 +861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>422952</v>
       </c>
@@ -875,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>208020</v>
       </c>
@@ -904,7 +919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>284040</v>
       </c>
@@ -933,7 +948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>575709</v>
       </c>
@@ -962,7 +977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>412179</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>905813</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>333769</v>
       </c>
@@ -1049,7 +1064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>313313</v>
       </c>
@@ -1078,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>619149</v>
       </c>
@@ -1107,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>730302</v>
       </c>
@@ -1136,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>228357</v>
       </c>
@@ -1165,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>428247</v>
       </c>
@@ -1194,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>380883</v>
       </c>
@@ -1223,7 +1238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>757708</v>
       </c>
@@ -1252,7 +1267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>126157</v>
       </c>
@@ -1281,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>689058</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>418339</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>337909</v>
       </c>
@@ -1368,7 +1383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>164726</v>
       </c>
@@ -1397,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>746035</v>
       </c>
@@ -1426,7 +1441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>260813</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>777419</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>916985</v>
       </c>
@@ -1513,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>131721</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>424522</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>637256</v>
       </c>
@@ -1600,7 +1615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>388187</v>
       </c>
@@ -1629,7 +1644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>452311</v>
       </c>
@@ -1658,7 +1673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>707522</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>780100</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>739623</v>
       </c>
@@ -1745,7 +1760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>496282</v>
       </c>
@@ -1774,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>842587</v>
       </c>
@@ -1803,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>951852</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>871184</v>
       </c>
@@ -1861,7 +1876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>523451</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>607720</v>
       </c>
@@ -1919,7 +1934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>358176</v>
       </c>
@@ -1948,7 +1963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>928958</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>685838</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>571390</v>
       </c>
@@ -2035,7 +2050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>750341</v>
       </c>
@@ -2064,7 +2079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>383717</v>
       </c>
@@ -2093,7 +2108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>419402</v>
       </c>
@@ -2122,7 +2137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>594887</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>465656</v>
       </c>
@@ -2180,7 +2195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>730626</v>
       </c>
@@ -2209,7 +2224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>446763</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>928743</v>
       </c>
@@ -2267,7 +2282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>234806</v>
       </c>
@@ -2296,7 +2311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>690771</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>116404</v>
       </c>
@@ -2354,7 +2369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>606750</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>248594</v>
       </c>
@@ -2412,7 +2427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>568874</v>
       </c>
@@ -2441,7 +2456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>211807</v>
       </c>
@@ -2470,7 +2485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>369968</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>644679</v>
       </c>
@@ -2528,7 +2543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>959786</v>
       </c>
@@ -2557,7 +2572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>135077</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>155222</v>
       </c>
@@ -2615,7 +2630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>657464</v>
       </c>
@@ -2644,7 +2659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>134276</v>
       </c>
@@ -2673,7 +2688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>507865</v>
       </c>
@@ -2702,7 +2717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>206165</v>
       </c>
@@ -2731,7 +2746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>451777</v>
       </c>
@@ -2760,7 +2775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>941625</v>
       </c>
@@ -2789,7 +2804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>418835</v>
       </c>
@@ -2818,7 +2833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>577424</v>
       </c>
@@ -2847,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>771840</v>
       </c>
@@ -2876,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>953954</v>
       </c>
@@ -2905,7 +2920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>611882</v>
       </c>
@@ -2934,7 +2949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>166037</v>
       </c>
@@ -2963,7 +2978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>781495</v>
       </c>
@@ -2992,7 +3007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>594594</v>
       </c>
@@ -3021,7 +3036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>328066</v>
       </c>
@@ -3050,7 +3065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>939104</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>580848</v>
       </c>
@@ -3108,7 +3123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>146514</v>
       </c>
@@ -3137,7 +3152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>369140</v>
       </c>
@@ -3166,7 +3181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>399735</v>
       </c>
@@ -3195,7 +3210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>275441</v>
       </c>
@@ -3224,7 +3239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>350677</v>
       </c>
@@ -3253,7 +3268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>133880</v>
       </c>
@@ -3282,7 +3297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>908415</v>
       </c>
@@ -3311,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>100723</v>
       </c>
@@ -3340,7 +3355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>627092</v>
       </c>
@@ -3369,7 +3384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>880565</v>
       </c>
@@ -3398,7 +3413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>573171</v>
       </c>

--- a/sd_met.xlsx
+++ b/sd_met.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\loc_sgq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BBB217-6E87-4598-9C4D-D5F3E2FBE75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3ABDB-4BBD-45ED-BED7-91E77B6D4E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{6CAE7BE2-4C37-4705-98FC-830CC73A23DE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="15">
   <si>
     <t>imc</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>geral</t>
-  </si>
-  <si>
-    <t>tudo</t>
   </si>
 </sst>
 </file>
@@ -498,7 +492,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K1" activeCellId="1" sqref="J1 K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -535,12 +529,8 @@
       <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
